--- a/Lab1/TEST OF CHROMIUM.xlsx
+++ b/Lab1/TEST OF CHROMIUM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dasha\Desktop\КПИ2.0\ТРПЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dasha\Desktop\КПИ2.0\ТРПЗ\TRPZ-2019\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t>TEST OF CHROMIUM</t>
   </si>
@@ -318,9 +317,6 @@
     <t>Приложения</t>
   </si>
   <si>
-    <t>Приложение - что-то типо продукта или расширения, которое можно продать. Таким образом, любой разработчик или же предприниматель, может создать/быть владельцем такого приложения и свободно получать за это прибыль. Любой пользователь может его установить, ознакомиться, использовать, конечно же, прежде оплатив свою покупку. Так же, их главная фича - запуск вне браузера. Что тоже, в свою очередь, является интересной, на мой взгляд, фичей.</t>
-  </si>
-  <si>
     <t>Мультипроцессная архитектура</t>
   </si>
   <si>
@@ -453,14 +449,147 @@
     <t>Для разработчиков</t>
   </si>
   <si>
-    <t>К сожалению, или может быть счастью, код браузера не обделили багами. И если вы напрямую захотите поработать с исходным кодом, то можете столкнуться с рядом проблем. Но, если вы захотите с ними ознакомиться, в Интернете достаточно информации и примеров таких багов. Не смотря на это, на основе Chromium были созданы и другие браузера, которыми сейчас пользуется очень много людей (Chrome, Opera).</t>
+    <t>Приложение - что-то типо продукта или расширения, которое можно продать. Таким образом, любой разработчик или же предприниматель, может создать/быть владельцем такого приложения и свободно получать за это прибыль. Любой пользователь может его установить, ознакомиться, использовать, конечно же, прежде оплатив свою покупку. Так же, их главная фича - запуск вне браузера.</t>
+  </si>
+  <si>
+    <t>Как это работает?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>http://szhu.github.io/3030/ 
+http://a/%%30%30</t>
+    </r>
+  </si>
+  <si>
+    <t>Ещё немного вкуснях</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Это лабиринт, созданный простым HTML-кодом. Правила очень простые, их можно прочитать по ссылке. Но суть в том, что если ты не пройдёшь этот лабиринт, по заданным правилам, вас перенесет на страницу, которая выдаст результат, якобы "сломанного" браузера. Но это является фейковой ошибкой. Т.к. по некоторым подсказкам, можно увидеть, что картинки и текст подгружаются с  определенного сайта. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">НО! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">подвести я хотела к ошибке, которую уже пофиксили и на основе её и был сделана эта - фейковая.  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">http://a/%%30%30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">- происходит ряд действий по обработке URL, вызове некоторых функций и обнаружении нулевых байтов. В конце концов, URL оказывается невалидным, вызывается DCHECK() и приводит к падению браузера. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>crashsafari.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Искав ответ на вопрос "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Как же всё таки можно крашнуть Chromium?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" нашлось совсем немного ответов. К счастью, для пользователей и, к сожалению, для меня, много из них уже пофиксили. Но пример работы некоторых мне таки удалось найти.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Как только пользователь заходит на сайт, небольшой скрипт начинает добавлять в строку браузера тысячу символов, заполняя оперативную память. Из-за этого сайт крашиться и решить эту проблему можно только перезапустив браузер. </t>
+  </si>
+  <si>
+    <t>К сожалению, код браузера не обделили багами. И если вы напрямую захотите поработать с исходным кодом, то можете столкнуться с рядом проблем. Но, если вы захотите с ними ознакомиться, в Интернете достаточно информации и примеров таких багов. Не смотря на это, на основе Chromium были созданы и другие браузера, которыми сейчас пользуется очень много людей (Chrome, Opera).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +698,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -660,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -696,15 +834,105 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,97 +943,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="W106" sqref="W106"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="M124" sqref="M124:V126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,22 +1266,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1148,20 +1301,20 @@
       <c r="W3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="31"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1173,170 +1326,170 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="18"/>
+      <c r="W4" s="22"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="50" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="50"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="50" t="s">
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="50"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="51" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="51"/>
+      <c r="W7" s="24"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="50" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="50"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1356,12 +1509,12 @@
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1381,12 +1534,12 @@
       <c r="W11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1414,22 +1567,22 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
       <c r="W13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -1458,24 +1611,24 @@
       <c r="W14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="8"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="44"/>
+      <c r="N15" s="29"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1486,45 +1639,45 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
     </row>
     <row r="17" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="32" t="s">
@@ -1539,23 +1692,23 @@
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="32"/>
-      <c r="S17" s="46" t="s">
+      <c r="S17" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="32" t="s">
@@ -1570,21 +1723,21 @@
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+    </row>
+    <row r="19" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="32" t="s">
@@ -1599,20 +1752,20 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1640,10 +1793,10 @@
     </row>
     <row r="22" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1653,10 +1806,10 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="37"/>
+      <c r="N22" s="28"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1672,22 +1825,22 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1695,10 +1848,10 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="18" t="s">
+      <c r="U23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="V23" s="18"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -1707,33 +1860,33 @@
     </row>
     <row r="24" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="42" t="s">
+      <c r="U24" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="V24" s="42"/>
+      <c r="V24" s="34"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -1749,22 +1902,22 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -1780,20 +1933,20 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
@@ -1809,20 +1962,20 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -1838,20 +1991,20 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -1867,20 +2020,20 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
@@ -1888,30 +2041,30 @@
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="A30" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -1927,24 +2080,24 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="42" t="s">
+      <c r="U31" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="V31" s="42"/>
+      <c r="V31" s="34"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -1953,31 +2106,31 @@
     </row>
     <row r="32" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="25" t="s">
+      <c r="I32" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -1986,29 +2139,29 @@
     </row>
     <row r="33" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="B33" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -2017,27 +2170,27 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="25"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -2046,27 +2199,27 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="34"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -2075,27 +2228,27 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
+      <c r="U36" s="34"/>
+      <c r="V36" s="34"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -2104,31 +2257,31 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="42" t="s">
+      <c r="U37" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="V37" s="42"/>
+      <c r="V37" s="34"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -2137,29 +2290,29 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
@@ -2168,27 +2321,27 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="25"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -2197,27 +2350,27 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -2226,11 +2379,11 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2255,11 +2408,11 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2284,22 +2437,22 @@
     </row>
     <row r="43" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -2317,29 +2470,29 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="B44" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="28" t="s">
+      <c r="T44" s="41" t="s">
         <v>13</v>
       </c>
       <c r="U44" s="3"/>
@@ -2352,29 +2505,29 @@
     </row>
     <row r="45" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="B45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="25" t="s">
+      <c r="I45" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="28"/>
+      <c r="T45" s="41"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -2385,25 +2538,25 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="28"/>
+      <c r="T46" s="41"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -2414,25 +2567,25 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="28"/>
+      <c r="T47" s="41"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -2443,25 +2596,25 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="28"/>
+      <c r="T48" s="41"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -2472,25 +2625,25 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="28"/>
+      <c r="T49" s="41"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -2501,25 +2654,25 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="28"/>
+      <c r="T50" s="41"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -2530,25 +2683,25 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="28"/>
+      <c r="T51" s="41"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -2559,27 +2712,27 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="42" t="s">
+      <c r="T52" s="34" t="s">
         <v>13</v>
       </c>
       <c r="U52" s="3"/>
@@ -2592,27 +2745,27 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="25" t="s">
+      <c r="I53" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="42"/>
+      <c r="T53" s="34"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -2623,25 +2776,25 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="42"/>
+      <c r="T54" s="34"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -2652,27 +2805,27 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="42" t="s">
+      <c r="T55" s="34" t="s">
         <v>13</v>
       </c>
       <c r="U55" s="3"/>
@@ -2685,27 +2838,27 @@
     </row>
     <row r="56" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="25"/>
-      <c r="R56" s="25"/>
+      <c r="I56" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="42"/>
+      <c r="T56" s="34"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
@@ -2716,25 +2869,25 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="25"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="42"/>
+      <c r="T57" s="34"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
@@ -2745,27 +2898,27 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
+      <c r="B58" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="42"/>
+      <c r="T58" s="34"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
@@ -2776,27 +2929,27 @@
     </row>
     <row r="59" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="B59" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
+      <c r="B59" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="25"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
       <c r="S59" s="3"/>
-      <c r="T59" s="42"/>
+      <c r="T59" s="34"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -2807,25 +2960,25 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="25"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="42"/>
+      <c r="T60" s="34"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
@@ -2836,25 +2989,25 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="25"/>
-      <c r="R61" s="25"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="42"/>
+      <c r="T61" s="34"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
@@ -2865,25 +3018,25 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
       <c r="S62" s="3"/>
-      <c r="T62" s="42"/>
+      <c r="T62" s="34"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -2894,25 +3047,25 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="25"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="42"/>
+      <c r="T63" s="34"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -2923,25 +3076,25 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="25"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
       <c r="S64" s="3"/>
-      <c r="T64" s="42"/>
+      <c r="T64" s="34"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
@@ -2952,27 +3105,27 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="32" t="s">
+      <c r="I65" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
       <c r="S65" s="3"/>
-      <c r="T65" s="42" t="s">
+      <c r="T65" s="34" t="s">
         <v>13</v>
       </c>
       <c r="U65" s="3"/>
@@ -2985,27 +3138,27 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="41" t="s">
+      <c r="I66" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
       <c r="S66" s="3"/>
-      <c r="T66" s="42"/>
+      <c r="T66" s="34"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
@@ -3016,27 +3169,27 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="32" t="s">
+      <c r="I67" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
       <c r="S67" s="3"/>
-      <c r="T67" s="42" t="s">
+      <c r="T67" s="34" t="s">
         <v>13</v>
       </c>
       <c r="U67" s="3"/>
@@ -3049,27 +3202,27 @@
     </row>
     <row r="68" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="25" t="s">
+      <c r="I68" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
       <c r="S68" s="3"/>
-      <c r="T68" s="42"/>
+      <c r="T68" s="34"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
@@ -3080,25 +3233,25 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="25"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="42"/>
+      <c r="T69" s="34"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -3109,25 +3262,25 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25"/>
-      <c r="Q70" s="25"/>
-      <c r="R70" s="25"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="42"/>
+      <c r="T70" s="34"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -3138,25 +3291,25 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
-      <c r="R71" s="25"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
       <c r="S71" s="3"/>
-      <c r="T71" s="42"/>
+      <c r="T71" s="34"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -3167,27 +3320,27 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
+      <c r="B72" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="25"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
       <c r="S72" s="3"/>
-      <c r="T72" s="42"/>
+      <c r="T72" s="34"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -3198,27 +3351,27 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
+      <c r="B73" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="42"/>
+      <c r="T73" s="34"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
@@ -3229,25 +3382,25 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="25"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
       <c r="S74" s="3"/>
-      <c r="T74" s="42"/>
+      <c r="T74" s="34"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
@@ -3258,25 +3411,25 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="25"/>
-      <c r="O75" s="25"/>
-      <c r="P75" s="25"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="25"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="42"/>
+      <c r="T75" s="34"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -3287,11 +3440,11 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="40" t="s">
@@ -3307,7 +3460,7 @@
       <c r="Q76" s="40"/>
       <c r="R76" s="40"/>
       <c r="S76" s="3"/>
-      <c r="T76" s="36" t="s">
+      <c r="T76" s="46" t="s">
         <v>44</v>
       </c>
       <c r="U76" s="3"/>
@@ -3320,27 +3473,27 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="41" t="s">
+      <c r="I77" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
       <c r="S77" s="3"/>
-      <c r="T77" s="36"/>
+      <c r="T77" s="46"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -3351,11 +3504,11 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="38" t="s">
@@ -3371,7 +3524,7 @@
       <c r="Q78" s="38"/>
       <c r="R78" s="38"/>
       <c r="S78" s="3"/>
-      <c r="T78" s="33" t="s">
+      <c r="T78" s="43" t="s">
         <v>13</v>
       </c>
       <c r="U78" s="3"/>
@@ -3384,27 +3537,27 @@
     </row>
     <row r="79" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="25" t="s">
+      <c r="I79" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="33"/>
+      <c r="R79" s="33"/>
       <c r="S79" s="3"/>
-      <c r="T79" s="34"/>
+      <c r="T79" s="44"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
@@ -3415,25 +3568,25 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="25"/>
-      <c r="P80" s="25"/>
-      <c r="Q80" s="25"/>
-      <c r="R80" s="25"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="33"/>
+      <c r="P80" s="33"/>
+      <c r="Q80" s="33"/>
+      <c r="R80" s="33"/>
       <c r="S80" s="3"/>
-      <c r="T80" s="34"/>
+      <c r="T80" s="44"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
@@ -3444,25 +3597,25 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="33"/>
       <c r="S81" s="3"/>
-      <c r="T81" s="34"/>
+      <c r="T81" s="44"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
@@ -3473,25 +3626,25 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="25"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
       <c r="S82" s="3"/>
-      <c r="T82" s="35"/>
+      <c r="T82" s="45"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
@@ -3502,11 +3655,11 @@
     </row>
     <row r="83" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="39" t="s">
@@ -3522,7 +3675,7 @@
       <c r="Q83" s="39"/>
       <c r="R83" s="39"/>
       <c r="S83" s="3"/>
-      <c r="T83" s="36" t="s">
+      <c r="T83" s="46" t="s">
         <v>44</v>
       </c>
       <c r="U83" s="3"/>
@@ -3534,172 +3687,172 @@
       <c r="AA83" s="3"/>
     </row>
     <row r="84" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="I84" s="25" t="s">
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="I84" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="25"/>
-      <c r="T84" s="36"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="T84" s="46"/>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="33"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33"/>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="T85" s="46"/>
+    </row>
+    <row r="86" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="T85" s="36"/>
-    </row>
-    <row r="86" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="32" t="s">
+      <c r="I86" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="T86" s="28" t="s">
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="27"/>
+      <c r="T86" s="41" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="25"/>
-      <c r="T87" s="28"/>
+      <c r="I87" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="33"/>
+      <c r="T87" s="41"/>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="25"/>
-      <c r="O88" s="25"/>
-      <c r="P88" s="25"/>
-      <c r="Q88" s="25"/>
-      <c r="R88" s="25"/>
-      <c r="T88" s="28"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="33"/>
+      <c r="P88" s="33"/>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="33"/>
+      <c r="T88" s="41"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="25"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
-      <c r="R89" s="25"/>
-      <c r="T89" s="28"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="33"/>
+      <c r="T89" s="41"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="25"/>
-      <c r="R90" s="25"/>
-      <c r="T90" s="28"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33"/>
+      <c r="T90" s="41"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="25"/>
-      <c r="T91" s="28"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="33"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="33"/>
+      <c r="P91" s="33"/>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33"/>
+      <c r="T91" s="41"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
@@ -3709,16 +3862,16 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="25"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B93" s="3"/>
@@ -3728,16 +3881,16 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
-      <c r="P93" s="25"/>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="25"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="33"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="33"/>
+      <c r="Q93" s="33"/>
+      <c r="R93" s="33"/>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
@@ -3747,16 +3900,16 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="25"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="25"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="25"/>
-      <c r="R94" s="25"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="33"/>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
@@ -3778,13 +3931,13 @@
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B96" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
+      <c r="B96" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -3792,105 +3945,105 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
-      <c r="N96" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="O96" s="27"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="27"/>
+      <c r="N96" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
       <c r="R96" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
+      <c r="B97" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J97" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="J97" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="N97" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="O97" s="30"/>
+      <c r="P97" s="30"/>
+      <c r="Q97" s="30"/>
       <c r="R97" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J98" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K98" s="23"/>
+      <c r="J98" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="K98" s="47"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
+      <c r="N98" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="O98" s="50"/>
+      <c r="P98" s="50"/>
+      <c r="Q98" s="50"/>
       <c r="R98" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J99" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K99" s="23"/>
+      <c r="J99" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="K99" s="47"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
-      <c r="N99" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
+      <c r="N99" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="O99" s="50"/>
+      <c r="P99" s="50"/>
+      <c r="Q99" s="50"/>
       <c r="R99" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -3905,11 +4058,11 @@
       <c r="R100" s="3"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -3924,11 +4077,11 @@
       <c r="R101" s="3"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -3943,11 +4096,11 @@
       <c r="R102" s="3"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -3962,11 +4115,11 @@
       <c r="R103" s="3"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -3981,93 +4134,93 @@
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="24"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
-      <c r="N105" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="O105" s="21"/>
-      <c r="P105" s="21"/>
+      <c r="N105" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="18" t="s">
+      <c r="H106" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106" s="22"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L106" s="22"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
-      <c r="T106" s="22"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="52"/>
+      <c r="O106" s="52"/>
+      <c r="P106" s="52"/>
+      <c r="Q106" s="52"/>
+      <c r="R106" s="52"/>
+      <c r="S106" s="52"/>
+      <c r="T106" s="52"/>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="7"/>
       <c r="J107" s="16"/>
-      <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="22"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
+      <c r="O107" s="52"/>
+      <c r="P107" s="52"/>
+      <c r="Q107" s="52"/>
+      <c r="R107" s="52"/>
+      <c r="S107" s="52"/>
+      <c r="T107" s="52"/>
     </row>
     <row r="108" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="17"/>
-      <c r="T108" s="17"/>
+      <c r="H108" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="49"/>
+      <c r="O108" s="49"/>
+      <c r="P108" s="49"/>
+      <c r="Q108" s="49"/>
+      <c r="R108" s="49"/>
+      <c r="S108" s="49"/>
+      <c r="T108" s="49"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B109" s="3"/>
@@ -4079,16 +4232,16 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="17"/>
-      <c r="S109" s="17"/>
-      <c r="T109" s="17"/>
+      <c r="K109" s="49"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="49"/>
+      <c r="O109" s="49"/>
+      <c r="P109" s="49"/>
+      <c r="Q109" s="49"/>
+      <c r="R109" s="49"/>
+      <c r="S109" s="49"/>
+      <c r="T109" s="49"/>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
@@ -4100,16 +4253,16 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
+      <c r="K110" s="49"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="49"/>
+      <c r="O110" s="49"/>
+      <c r="P110" s="49"/>
+      <c r="Q110" s="49"/>
+      <c r="R110" s="49"/>
+      <c r="S110" s="49"/>
+      <c r="T110" s="49"/>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B111" s="3"/>
@@ -4121,16 +4274,16 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="17"/>
+      <c r="K111" s="49"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+      <c r="P111" s="49"/>
+      <c r="Q111" s="49"/>
+      <c r="R111" s="49"/>
+      <c r="S111" s="49"/>
+      <c r="T111" s="49"/>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B112" s="3"/>
@@ -4151,7 +4304,7 @@
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -4170,15 +4323,15 @@
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:22" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
+      <c r="C114" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="58"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -4189,7 +4342,7 @@
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -4202,146 +4355,166 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="Q115" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="R115" s="57"/>
+    </row>
+    <row r="116" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C116" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="J116" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
+      <c r="M116" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="18"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="18"/>
+      <c r="U116" s="18"/>
+      <c r="V116" s="18"/>
+    </row>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="18"/>
+      <c r="R117" s="18"/>
+      <c r="S117" s="18"/>
+      <c r="T117" s="18"/>
+      <c r="U117" s="18"/>
+      <c r="V117" s="18"/>
+    </row>
+    <row r="118" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="K118" s="54"/>
       <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="18"/>
+      <c r="U118" s="18"/>
+      <c r="V118" s="18"/>
+    </row>
+    <row r="119" spans="2:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="K119" s="54"/>
       <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
-      <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="18"/>
+      <c r="U119" s="18"/>
+      <c r="V119" s="18"/>
+    </row>
+    <row r="120" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="K120" s="54"/>
       <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="18"/>
+      <c r="S120" s="18"/>
+      <c r="T120" s="18"/>
+      <c r="U120" s="18"/>
+      <c r="V120" s="18"/>
+    </row>
+    <row r="121" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
-      <c r="N121" s="3"/>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
-      <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18"/>
+      <c r="T121" s="18"/>
+      <c r="U121" s="18"/>
+      <c r="V121" s="18"/>
+    </row>
+    <row r="122" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="54"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18"/>
+      <c r="T122" s="18"/>
+      <c r="U122" s="18"/>
+      <c r="V122" s="18"/>
+    </row>
+    <row r="123" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4353,14 +4526,18 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
-      <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="18"/>
+      <c r="U123" s="18"/>
+      <c r="V123" s="18"/>
+    </row>
+    <row r="124" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4369,17 +4546,25 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
-      <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-    </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="J124" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="18"/>
+      <c r="T124" s="18"/>
+      <c r="U124" s="18"/>
+      <c r="V124" s="18"/>
+    </row>
+    <row r="125" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4391,14 +4576,18 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="18"/>
+      <c r="R125" s="18"/>
+      <c r="S125" s="18"/>
+      <c r="T125" s="18"/>
+      <c r="U125" s="18"/>
+      <c r="V125" s="18"/>
+    </row>
+    <row r="126" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4410,14 +4599,18 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-      <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="18"/>
+      <c r="T126" s="18"/>
+      <c r="U126" s="18"/>
+      <c r="V126" s="18"/>
+    </row>
+    <row r="127" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4436,7 +4629,7 @@
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4684,51 +4877,46 @@
       <c r="R140" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F11"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F19"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J9:R9"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="J7:R8"/>
-    <mergeCell ref="S17:Y19"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="I13:V13"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I37:R37"/>
-    <mergeCell ref="I38:R40"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V30"/>
-    <mergeCell ref="U31:V36"/>
-    <mergeCell ref="U37:V40"/>
-    <mergeCell ref="I31:R31"/>
-    <mergeCell ref="I32:R36"/>
-    <mergeCell ref="I24:R24"/>
-    <mergeCell ref="I25:R30"/>
-    <mergeCell ref="I65:R65"/>
-    <mergeCell ref="I66:R66"/>
-    <mergeCell ref="I67:R67"/>
-    <mergeCell ref="I44:R44"/>
-    <mergeCell ref="I45:R51"/>
-    <mergeCell ref="I52:R52"/>
-    <mergeCell ref="I53:R54"/>
+  <mergeCells count="99">
+    <mergeCell ref="J124:L124"/>
+    <mergeCell ref="M116:V123"/>
+    <mergeCell ref="M124:V126"/>
+    <mergeCell ref="Q115:R115"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C116:G121"/>
+    <mergeCell ref="J116:L117"/>
+    <mergeCell ref="B97:F108"/>
+    <mergeCell ref="B86:F91"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="I87:R94"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="N96:Q96"/>
+    <mergeCell ref="K108:T111"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="N98:Q98"/>
+    <mergeCell ref="N99:Q99"/>
+    <mergeCell ref="N105:P105"/>
+    <mergeCell ref="K106:T107"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="T86:T91"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="T78:T82"/>
+    <mergeCell ref="T76:T77"/>
+    <mergeCell ref="T83:T85"/>
+    <mergeCell ref="T44:T51"/>
+    <mergeCell ref="T52:T54"/>
+    <mergeCell ref="T55:T64"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="T67:T75"/>
+    <mergeCell ref="I55:R55"/>
+    <mergeCell ref="I56:R64"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="B32:F32"/>
@@ -4745,38 +4933,50 @@
     <mergeCell ref="I68:R75"/>
     <mergeCell ref="I76:R76"/>
     <mergeCell ref="I77:R77"/>
-    <mergeCell ref="T86:T91"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F71"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="T78:T82"/>
-    <mergeCell ref="T76:T77"/>
-    <mergeCell ref="T83:T85"/>
-    <mergeCell ref="T44:T51"/>
-    <mergeCell ref="T52:T54"/>
-    <mergeCell ref="T55:T64"/>
-    <mergeCell ref="T65:T66"/>
-    <mergeCell ref="T67:T75"/>
-    <mergeCell ref="I55:R55"/>
-    <mergeCell ref="I56:R64"/>
-    <mergeCell ref="B97:F108"/>
-    <mergeCell ref="B86:F91"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="I87:R94"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="K108:T111"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="N105:P105"/>
-    <mergeCell ref="K106:T107"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="I65:R65"/>
+    <mergeCell ref="I66:R66"/>
+    <mergeCell ref="I67:R67"/>
+    <mergeCell ref="I44:R44"/>
+    <mergeCell ref="I45:R51"/>
+    <mergeCell ref="I52:R52"/>
+    <mergeCell ref="I53:R54"/>
+    <mergeCell ref="I37:R37"/>
+    <mergeCell ref="I38:R40"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V30"/>
+    <mergeCell ref="U31:V36"/>
+    <mergeCell ref="U37:V40"/>
+    <mergeCell ref="I31:R31"/>
+    <mergeCell ref="I32:R36"/>
+    <mergeCell ref="I24:R24"/>
+    <mergeCell ref="I25:R30"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F19"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="J7:R8"/>
+    <mergeCell ref="S17:Y19"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="I13:V13"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="A4:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Lab1/TEST OF CHROMIUM.xlsx
+++ b/Lab1/TEST OF CHROMIUM.xlsx
@@ -12,7 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Smoke test" sheetId="4" r:id="rId1"/>
+    <sheet name="Tests" sheetId="1" r:id="rId2"/>
+    <sheet name="WB" sheetId="2" r:id="rId3"/>
+    <sheet name="Фичи" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>TEST OF CHROMIUM</t>
   </si>
@@ -35,9 +38,6 @@
     <t>Что же такое Chromium и с чем его едят?</t>
   </si>
   <si>
-    <t>Smoke testing</t>
-  </si>
-  <si>
     <t>Браузер должен пройти тест на совместимость с нашим ПК.</t>
   </si>
   <si>
@@ -68,9 +68,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>Далее, я разбила процесс тестировки на несколько этапов, с которыми может столкнуться пользователь при использовании данного ПО.</t>
-  </si>
-  <si>
     <t>Установка</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
   </si>
   <si>
     <t>2. В скачанном архиве, пользователь не сразу найдёт нужный .exe файл для установки</t>
-  </si>
-  <si>
-    <t>3. ПК не "сдружиться" с нашей программой установки</t>
   </si>
   <si>
     <t>В моем случае, Chromium установился быстро и без лишних заморочек. По окончанию установки, браузер самостоятельно открылся и предложил сделать его "браузером по умолчанию".</t>
@@ -138,14 +132,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.  Насколько быстро отрабатываются правильные запросы? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запросы отрабатываются достаточно быстро, без замедлений. 
-Так же, хорошо отрабатываются несколько одновременных запросов, в разных вкладках. 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">3. Что будет, если ввести запрос транслитом или неправильно? </t>
   </si>
   <si>
@@ -165,9 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">6. Насколько браузер адаптивен? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">При уменьшении экрана, браузер ничего не меняет, добавляется вертикальный и горизонтальный scroll. </t>
   </si>
   <si>
     <t>-</t>
@@ -584,12 +567,50 @@
   <si>
     <t>К сожалению, код браузера не обделили багами. И если вы напрямую захотите поработать с исходным кодом, то можете столкнуться с рядом проблем. Но, если вы захотите с ними ознакомиться, в Интернете достаточно информации и примеров таких багов. Не смотря на это, на основе Chromium были созданы и другие браузера, которыми сейчас пользуется очень много людей (Chrome, Opera).</t>
   </si>
+  <si>
+    <t>При изменении масштабов окна браузера, на стандартной странице браузера нет адаптивных изменений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.  Быстро ли отрабатываются корректные запросы? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запросы отрабатываются не более 0,01 с, без замедлений. 
+Так же, хорошо отрабатываются несколько одновременных запросов, в разных вкладках. 
+</t>
+  </si>
+  <si>
+    <t>3. ПК не "сдружится" с нашей программой установки</t>
+  </si>
+  <si>
+    <t>Критичность</t>
+  </si>
+  <si>
+    <t>Шкала: 0 - low, 10 - asap</t>
+  </si>
+  <si>
+    <t>Отработка http, ftp запросов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Работа всех кнопок и клавиш </t>
+  </si>
+  <si>
+    <t>История посещений</t>
+  </si>
+  <si>
+    <t>История загрузок</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Базовый, понятный интерфейс</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +728,34 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -734,7 +783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -794,11 +843,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -824,141 +891,203 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +1097,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFCB2"/>
       <color rgb="FFFB7D7D"/>
-      <color rgb="FFCCFCB2"/>
       <color rgb="FFFFEBFC"/>
       <color rgb="FFFEC2E4"/>
     </mruColors>
@@ -1248,10 +1377,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
+      <c r="J1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="44"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="44"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="44"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="77"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="I8" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="78"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="I9" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="78"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="I10" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="78"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="I11" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="78"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="I12" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="78"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F24"/>
+    <mergeCell ref="A9:F17"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="M124" sqref="M124:V126"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,23 +1685,15 @@
     <col min="21" max="21" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="M1" s="36" t="s">
+    <row r="1" spans="7:26" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="M1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+    </row>
+    <row r="3" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1300,25 +1712,17 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+    <row r="4" spans="7:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="25"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="4"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="M4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="49"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1326,170 +1730,134 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="22"/>
+      <c r="V4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="28"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+    <row r="5" spans="7:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="23"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="J5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="51"/>
+    </row>
+    <row r="6" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="23"/>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="51"/>
+    </row>
+    <row r="7" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="W7" s="24"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="52"/>
+    </row>
+    <row r="8" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+    </row>
+    <row r="9" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="W9" s="23"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="51"/>
+    </row>
+    <row r="10" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1508,13 +1876,7 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+    <row r="11" spans="7:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1533,13 +1895,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+    <row r="12" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1558,40 +1914,26 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3"/>
+    <row r="13" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="3"/>
+    <row r="14" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1610,25 +1952,15 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+    <row r="15" spans="7:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="8"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="29"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1638,134 +1970,108 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+    <row r="16" spans="7:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
+      <c r="I16" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
+      <c r="S16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
     </row>
     <row r="17" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
+      <c r="I18" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
     </row>
     <row r="19" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
+      <c r="I19" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1793,10 +2099,10 @@
     </row>
     <row r="22" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
-      <c r="B22" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="27"/>
+      <c r="B22" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="44"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1806,10 +2112,10 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="28"/>
+      <c r="M22" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="45"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1825,22 +2131,22 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="27"/>
+      <c r="B23" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="44"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
+      <c r="I23" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1848,10 +2154,10 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="V23" s="22"/>
+      <c r="U23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" s="28"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -1860,33 +2166,33 @@
     </row>
     <row r="24" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
-      <c r="B24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="27"/>
+      <c r="B24" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="44"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="I24" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="V24" s="34"/>
+      <c r="U24" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="39"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
@@ -1902,22 +2208,22 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
+      <c r="I25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="39"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -1933,20 +2239,20 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
@@ -1962,20 +2268,20 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -1991,20 +2297,20 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -2020,20 +2326,20 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
@@ -2041,30 +2347,28 @@
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -2080,24 +2384,24 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
+      <c r="I31" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="V31" s="34"/>
+      <c r="U31" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" s="39"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -2106,31 +2410,29 @@
     </row>
     <row r="32" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
+      <c r="I32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -2139,29 +2441,27 @@
     </row>
     <row r="33" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
-      <c r="B33" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -2170,27 +2470,27 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -2199,27 +2499,27 @@
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
@@ -2228,27 +2528,27 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
@@ -2257,31 +2557,31 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
+      <c r="I37" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="V37" s="34"/>
+      <c r="U37" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="V37" s="39"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -2290,29 +2590,29 @@
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
+      <c r="I38" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
@@ -2321,27 +2621,27 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
@@ -2350,27 +2650,27 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
@@ -2379,11 +2679,11 @@
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2408,11 +2708,11 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2437,28 +2737,28 @@
     </row>
     <row r="43" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="M43" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
+      <c r="M43" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -2470,30 +2770,28 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
+      <c r="I44" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="41" t="s">
-        <v>13</v>
+      <c r="T44" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -2505,29 +2803,27 @@
     </row>
     <row r="45" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
-      <c r="B45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
+      <c r="I45" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="41"/>
+      <c r="T45" s="33"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -2538,25 +2834,25 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="41"/>
+      <c r="T46" s="33"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -2567,25 +2863,25 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="41"/>
+      <c r="T47" s="33"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -2596,25 +2892,25 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="41"/>
+      <c r="T48" s="33"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -2625,25 +2921,25 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="41"/>
+      <c r="T49" s="33"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -2654,25 +2950,25 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="41"/>
+      <c r="T50" s="33"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -2683,25 +2979,25 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="41"/>
+      <c r="T51" s="33"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -2712,28 +3008,28 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
+      <c r="I52" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="34" t="s">
-        <v>13</v>
+      <c r="T52" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -2745,27 +3041,27 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
+      <c r="I53" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="34"/>
+      <c r="T53" s="39"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
@@ -2776,25 +3072,25 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="34"/>
+      <c r="T54" s="39"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
@@ -2805,28 +3101,28 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
+      <c r="I55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="34" t="s">
-        <v>13</v>
+      <c r="T55" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
@@ -2838,27 +3134,27 @@
     </row>
     <row r="56" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
+      <c r="I56" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="34"/>
+      <c r="T56" s="39"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
@@ -2869,25 +3165,25 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="34"/>
+      <c r="T57" s="39"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
@@ -2898,27 +3194,25 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="34"/>
+      <c r="T58" s="39"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
@@ -2929,27 +3223,25 @@
     </row>
     <row r="59" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
-      <c r="B59" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
       <c r="S59" s="3"/>
-      <c r="T59" s="34"/>
+      <c r="T59" s="39"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
@@ -2960,25 +3252,25 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="34"/>
+      <c r="T60" s="39"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
@@ -2989,25 +3281,25 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="34"/>
+      <c r="T61" s="39"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
@@ -3018,25 +3310,25 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
       <c r="S62" s="3"/>
-      <c r="T62" s="34"/>
+      <c r="T62" s="39"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -3047,25 +3339,25 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="34"/>
+      <c r="T63" s="39"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
@@ -3076,25 +3368,25 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
       <c r="S64" s="3"/>
-      <c r="T64" s="34"/>
+      <c r="T64" s="39"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
@@ -3105,28 +3397,28 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
+      <c r="I65" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
       <c r="S65" s="3"/>
-      <c r="T65" s="34" t="s">
-        <v>13</v>
+      <c r="T65" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
@@ -3138,27 +3430,27 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
+      <c r="I66" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="48"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="48"/>
+      <c r="M66" s="48"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
       <c r="S66" s="3"/>
-      <c r="T66" s="34"/>
+      <c r="T66" s="39"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
@@ -3169,28 +3461,28 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
+      <c r="I67" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
       <c r="S67" s="3"/>
-      <c r="T67" s="34" t="s">
-        <v>13</v>
+      <c r="T67" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
@@ -3202,27 +3494,27 @@
     </row>
     <row r="68" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
+      <c r="I68" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
       <c r="S68" s="3"/>
-      <c r="T68" s="34"/>
+      <c r="T68" s="39"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
@@ -3233,25 +3525,25 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="34"/>
+      <c r="T69" s="39"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
@@ -3262,25 +3554,25 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
-      <c r="R70" s="33"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="34"/>
+      <c r="T70" s="39"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
@@ -3291,25 +3583,25 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
       <c r="S71" s="3"/>
-      <c r="T71" s="34"/>
+      <c r="T71" s="39"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
@@ -3320,27 +3612,25 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
-      <c r="B72" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
       <c r="S72" s="3"/>
-      <c r="T72" s="34"/>
+      <c r="T72" s="39"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
@@ -3351,27 +3641,25 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="33"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="34"/>
+      <c r="T73" s="39"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
@@ -3382,25 +3670,25 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="33"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
       <c r="S74" s="3"/>
-      <c r="T74" s="34"/>
+      <c r="T74" s="39"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
@@ -3411,25 +3699,25 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="34"/>
+      <c r="T75" s="39"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
@@ -3440,28 +3728,28 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
+      <c r="I76" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="47"/>
       <c r="S76" s="3"/>
-      <c r="T76" s="46" t="s">
-        <v>44</v>
+      <c r="T76" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
@@ -3473,27 +3761,27 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
+      <c r="I77" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="48"/>
+      <c r="P77" s="48"/>
+      <c r="Q77" s="48"/>
+      <c r="R77" s="48"/>
       <c r="S77" s="3"/>
-      <c r="T77" s="46"/>
+      <c r="T77" s="38"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -3504,28 +3792,28 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-      <c r="I78" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
+      <c r="I78" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="46"/>
       <c r="S78" s="3"/>
-      <c r="T78" s="43" t="s">
-        <v>13</v>
+      <c r="T78" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -3537,27 +3825,27 @@
     </row>
     <row r="79" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
+      <c r="I79" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
       <c r="S79" s="3"/>
-      <c r="T79" s="44"/>
+      <c r="T79" s="36"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
@@ -3568,25 +3856,25 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
       <c r="S80" s="3"/>
-      <c r="T80" s="44"/>
+      <c r="T80" s="36"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
@@ -3597,25 +3885,25 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
       <c r="S81" s="3"/>
-      <c r="T81" s="44"/>
+      <c r="T81" s="36"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
@@ -3626,25 +3914,25 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="33"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
       <c r="S82" s="3"/>
-      <c r="T82" s="45"/>
+      <c r="T82" s="37"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
@@ -3655,28 +3943,28 @@
     </row>
     <row r="83" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J83" s="39"/>
-      <c r="K83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="39"/>
-      <c r="O83" s="39"/>
-      <c r="P83" s="39"/>
-      <c r="Q83" s="39"/>
-      <c r="R83" s="39"/>
+      <c r="I83" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
       <c r="S83" s="3"/>
-      <c r="T83" s="46" t="s">
-        <v>44</v>
+      <c r="T83" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
@@ -3687,172 +3975,168 @@
       <c r="AA83" s="3"/>
     </row>
     <row r="84" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="I84" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="33"/>
-      <c r="T84" s="46"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="I84" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="T84" s="38"/>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B85" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="T85" s="46"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="T85" s="38"/>
     </row>
     <row r="86" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="27"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="27"/>
-      <c r="R86" s="27"/>
-      <c r="T86" s="41" t="s">
-        <v>13</v>
+      <c r="I86" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
+      <c r="T86" s="33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:27" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="T87" s="41"/>
+      <c r="I87" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="T87" s="33"/>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="T88" s="41"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="T88" s="33"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="T89" s="41"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="T89" s="33"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="33"/>
-      <c r="R90" s="33"/>
-      <c r="T90" s="41"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="T90" s="33"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="33"/>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="33"/>
-      <c r="R91" s="33"/>
-      <c r="T91" s="41"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="T91" s="33"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B92" s="3"/>
@@ -3862,16 +4146,16 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="33"/>
-      <c r="R92" s="33"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B93" s="3"/>
@@ -3881,18 +4165,18 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="33"/>
-      <c r="N93" s="33"/>
-      <c r="O93" s="33"/>
-      <c r="P93" s="33"/>
-      <c r="Q93" s="33"/>
-      <c r="R93" s="33"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+    </row>
+    <row r="94" spans="1:27" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3900,16 +4184,16 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="33"/>
-      <c r="N94" s="33"/>
-      <c r="O94" s="33"/>
-      <c r="P94" s="33"/>
-      <c r="Q94" s="33"/>
-      <c r="R94" s="33"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B95" s="3"/>
@@ -3931,13 +4215,11 @@
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B96" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -3945,105 +4227,75 @@
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
-      <c r="N96" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
-      <c r="Q96" s="37"/>
-      <c r="R96" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="N96" s="64"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="64"/>
+      <c r="Q96" s="64"/>
+      <c r="R96" s="15"/>
     </row>
     <row r="97" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J97" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="K97" s="47"/>
-      <c r="L97" s="47"/>
-      <c r="M97" s="47"/>
-      <c r="N97" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O97" s="30"/>
-      <c r="P97" s="30"/>
-      <c r="Q97" s="30"/>
-      <c r="R97" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="H97" s="71"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="70"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J98" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="K98" s="47"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
-      <c r="N98" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="O98" s="50"/>
-      <c r="P98" s="50"/>
-      <c r="Q98" s="50"/>
-      <c r="R98" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="N98" s="65"/>
+      <c r="O98" s="65"/>
+      <c r="P98" s="65"/>
+      <c r="Q98" s="65"/>
+      <c r="R98" s="70"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J99" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="K99" s="47"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
-      <c r="N99" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="O99" s="50"/>
-      <c r="P99" s="50"/>
-      <c r="Q99" s="50"/>
-      <c r="R99" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="N99" s="65"/>
+      <c r="O99" s="65"/>
+      <c r="P99" s="65"/>
+      <c r="Q99" s="65"/>
+      <c r="R99" s="70"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -4058,11 +4310,11 @@
       <c r="R100" s="3"/>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -4077,11 +4329,11 @@
       <c r="R101" s="3"/>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -4096,11 +4348,11 @@
       <c r="R102" s="3"/>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -4115,11 +4367,11 @@
       <c r="R103" s="3"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -4134,93 +4386,83 @@
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
-      <c r="N105" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="O105" s="51"/>
-      <c r="P105" s="51"/>
+      <c r="N105" s="66"/>
+      <c r="O105" s="66"/>
+      <c r="P105" s="66"/>
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="L106" s="52"/>
-      <c r="M106" s="52"/>
-      <c r="N106" s="52"/>
-      <c r="O106" s="52"/>
-      <c r="P106" s="52"/>
-      <c r="Q106" s="52"/>
-      <c r="R106" s="52"/>
-      <c r="S106" s="52"/>
-      <c r="T106" s="52"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="62"/>
+      <c r="O106" s="62"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="62"/>
+      <c r="R106" s="62"/>
+      <c r="S106" s="62"/>
+      <c r="T106" s="62"/>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="7"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="52"/>
-      <c r="M107" s="52"/>
-      <c r="N107" s="52"/>
-      <c r="O107" s="52"/>
-      <c r="P107" s="52"/>
-      <c r="Q107" s="52"/>
-      <c r="R107" s="52"/>
-      <c r="S107" s="52"/>
-      <c r="T107" s="52"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="62"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="62"/>
+      <c r="O107" s="62"/>
+      <c r="P107" s="62"/>
+      <c r="Q107" s="62"/>
+      <c r="R107" s="62"/>
+      <c r="S107" s="62"/>
+      <c r="T107" s="62"/>
     </row>
     <row r="108" spans="2:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="L108" s="49"/>
-      <c r="M108" s="49"/>
-      <c r="N108" s="49"/>
-      <c r="O108" s="49"/>
-      <c r="P108" s="49"/>
-      <c r="Q108" s="49"/>
-      <c r="R108" s="49"/>
-      <c r="S108" s="49"/>
-      <c r="T108" s="49"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="61"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
+      <c r="N108" s="61"/>
+      <c r="O108" s="61"/>
+      <c r="P108" s="61"/>
+      <c r="Q108" s="61"/>
+      <c r="R108" s="61"/>
+      <c r="S108" s="61"/>
+      <c r="T108" s="61"/>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B109" s="3"/>
@@ -4232,16 +4474,16 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
-      <c r="K109" s="49"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="49"/>
-      <c r="N109" s="49"/>
-      <c r="O109" s="49"/>
-      <c r="P109" s="49"/>
-      <c r="Q109" s="49"/>
-      <c r="R109" s="49"/>
-      <c r="S109" s="49"/>
-      <c r="T109" s="49"/>
+      <c r="K109" s="61"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="61"/>
+      <c r="N109" s="61"/>
+      <c r="O109" s="61"/>
+      <c r="P109" s="61"/>
+      <c r="Q109" s="61"/>
+      <c r="R109" s="61"/>
+      <c r="S109" s="61"/>
+      <c r="T109" s="61"/>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
@@ -4253,16 +4495,16 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="49"/>
-      <c r="L110" s="49"/>
-      <c r="M110" s="49"/>
-      <c r="N110" s="49"/>
-      <c r="O110" s="49"/>
-      <c r="P110" s="49"/>
-      <c r="Q110" s="49"/>
-      <c r="R110" s="49"/>
-      <c r="S110" s="49"/>
-      <c r="T110" s="49"/>
+      <c r="K110" s="61"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
+      <c r="N110" s="61"/>
+      <c r="O110" s="61"/>
+      <c r="P110" s="61"/>
+      <c r="Q110" s="61"/>
+      <c r="R110" s="61"/>
+      <c r="S110" s="61"/>
+      <c r="T110" s="61"/>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B111" s="3"/>
@@ -4274,16 +4516,16 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
-      <c r="K111" s="49"/>
-      <c r="L111" s="49"/>
-      <c r="M111" s="49"/>
-      <c r="N111" s="49"/>
-      <c r="O111" s="49"/>
-      <c r="P111" s="49"/>
-      <c r="Q111" s="49"/>
-      <c r="R111" s="49"/>
-      <c r="S111" s="49"/>
-      <c r="T111" s="49"/>
+      <c r="K111" s="61"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="61"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="61"/>
+      <c r="S111" s="61"/>
+      <c r="T111" s="61"/>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B112" s="3"/>
@@ -4325,13 +4567,11 @@
     </row>
     <row r="114" spans="2:22" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B114" s="3"/>
-      <c r="C114" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D114" s="58"/>
-      <c r="E114" s="58"/>
-      <c r="F114" s="58"/>
-      <c r="G114" s="58"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="67"/>
+      <c r="G114" s="67"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -4355,164 +4595,156 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
-      <c r="Q115" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="R115" s="57"/>
+      <c r="Q115" s="68"/>
+      <c r="R115" s="68"/>
     </row>
     <row r="116" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="3"/>
-      <c r="C116" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="J116" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
-      <c r="T116" s="18"/>
-      <c r="U116" s="18"/>
-      <c r="V116" s="18"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="16"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="16"/>
+      <c r="U116" s="16"/>
+      <c r="V116" s="16"/>
     </row>
     <row r="117" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="T117" s="18"/>
-      <c r="U117" s="18"/>
-      <c r="V117" s="18"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="16"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="16"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="16"/>
+      <c r="U117" s="16"/>
+      <c r="V117" s="16"/>
     </row>
     <row r="118" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="K118" s="54"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="K118" s="16"/>
       <c r="L118" s="3"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
-      <c r="T118" s="18"/>
-      <c r="U118" s="18"/>
-      <c r="V118" s="18"/>
+      <c r="M118" s="16"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="16"/>
+      <c r="R118" s="16"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="16"/>
+      <c r="U118" s="16"/>
+      <c r="V118" s="16"/>
     </row>
     <row r="119" spans="2:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="K119" s="54"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="K119" s="16"/>
       <c r="L119" s="3"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="P119" s="18"/>
-      <c r="Q119" s="18"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
-      <c r="T119" s="18"/>
-      <c r="U119" s="18"/>
-      <c r="V119" s="18"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="16"/>
+      <c r="U119" s="16"/>
+      <c r="V119" s="16"/>
     </row>
     <row r="120" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B120" s="3"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="K120" s="54"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="K120" s="16"/>
       <c r="L120" s="3"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
-      <c r="T120" s="18"/>
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="16"/>
+      <c r="S120" s="16"/>
+      <c r="T120" s="16"/>
+      <c r="U120" s="16"/>
+      <c r="V120" s="16"/>
     </row>
     <row r="121" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
-      <c r="T121" s="18"/>
-      <c r="U121" s="18"/>
-      <c r="V121" s="18"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+      <c r="Q121" s="16"/>
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="16"/>
+      <c r="U121" s="16"/>
+      <c r="V121" s="16"/>
     </row>
     <row r="122" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
-      <c r="T122" s="18"/>
-      <c r="U122" s="18"/>
-      <c r="V122" s="18"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="16"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="16"/>
+      <c r="U122" s="16"/>
+      <c r="V122" s="16"/>
     </row>
     <row r="123" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
@@ -4526,16 +4758,16 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-      <c r="Q123" s="18"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="18"/>
-      <c r="T123" s="18"/>
-      <c r="U123" s="18"/>
-      <c r="V123" s="18"/>
+      <c r="M123" s="16"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+      <c r="P123" s="16"/>
+      <c r="Q123" s="16"/>
+      <c r="R123" s="16"/>
+      <c r="S123" s="16"/>
+      <c r="T123" s="16"/>
+      <c r="U123" s="16"/>
+      <c r="V123" s="16"/>
     </row>
     <row r="124" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
@@ -4546,23 +4778,19 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
-      <c r="J124" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-      <c r="P124" s="18"/>
-      <c r="Q124" s="18"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="18"/>
-      <c r="T124" s="18"/>
-      <c r="U124" s="18"/>
-      <c r="V124" s="18"/>
+      <c r="J124" s="69"/>
+      <c r="K124" s="69"/>
+      <c r="L124" s="69"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="16"/>
+      <c r="U124" s="16"/>
+      <c r="V124" s="16"/>
     </row>
     <row r="125" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
@@ -4576,16 +4804,16 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-      <c r="Q125" s="18"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
-      <c r="T125" s="18"/>
-      <c r="U125" s="18"/>
-      <c r="V125" s="18"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="16"/>
+      <c r="U125" s="16"/>
+      <c r="V125" s="16"/>
     </row>
     <row r="126" spans="2:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
@@ -4599,16 +4827,16 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-      <c r="P126" s="18"/>
-      <c r="Q126" s="18"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18"/>
-      <c r="T126" s="18"/>
-      <c r="U126" s="18"/>
-      <c r="V126" s="18"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="16"/>
+      <c r="S126" s="16"/>
+      <c r="T126" s="16"/>
+      <c r="U126" s="16"/>
+      <c r="V126" s="16"/>
     </row>
     <row r="127" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
@@ -4877,36 +5105,57 @@
       <c r="R140" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="J124:L124"/>
-    <mergeCell ref="M116:V123"/>
-    <mergeCell ref="M124:V126"/>
-    <mergeCell ref="Q115:R115"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C116:G121"/>
-    <mergeCell ref="J116:L117"/>
-    <mergeCell ref="B97:F108"/>
-    <mergeCell ref="B86:F91"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="I87:R94"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="N96:Q96"/>
-    <mergeCell ref="K108:T111"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="N97:Q97"/>
-    <mergeCell ref="N98:Q98"/>
-    <mergeCell ref="N99:Q99"/>
-    <mergeCell ref="N105:P105"/>
-    <mergeCell ref="K106:T107"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:K98"/>
+  <mergeCells count="61">
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="J9:R9"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="J7:R8"/>
+    <mergeCell ref="S17:Y19"/>
+    <mergeCell ref="S16:Y16"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I37:R37"/>
+    <mergeCell ref="I38:R40"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V30"/>
+    <mergeCell ref="U31:V36"/>
+    <mergeCell ref="U37:V40"/>
+    <mergeCell ref="I31:R31"/>
+    <mergeCell ref="I32:R36"/>
+    <mergeCell ref="I24:R24"/>
+    <mergeCell ref="I25:R30"/>
+    <mergeCell ref="I65:R65"/>
+    <mergeCell ref="I66:R66"/>
+    <mergeCell ref="I67:R67"/>
+    <mergeCell ref="I44:R44"/>
+    <mergeCell ref="I45:R51"/>
+    <mergeCell ref="I52:R52"/>
+    <mergeCell ref="I53:R54"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="I86:R86"/>
+    <mergeCell ref="I84:R85"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="I78:R78"/>
+    <mergeCell ref="I79:R82"/>
+    <mergeCell ref="I83:R83"/>
+    <mergeCell ref="I68:R75"/>
+    <mergeCell ref="I76:R76"/>
+    <mergeCell ref="I77:R77"/>
     <mergeCell ref="T86:T91"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F71"/>
-    <mergeCell ref="B72:F72"/>
     <mergeCell ref="T78:T82"/>
     <mergeCell ref="T76:T77"/>
     <mergeCell ref="T83:T85"/>
@@ -4917,68 +5166,1547 @@
     <mergeCell ref="T67:T75"/>
     <mergeCell ref="I55:R55"/>
     <mergeCell ref="I56:R64"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F43"/>
-    <mergeCell ref="I86:R86"/>
-    <mergeCell ref="I84:R85"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="I78:R78"/>
-    <mergeCell ref="I79:R82"/>
-    <mergeCell ref="I83:R83"/>
-    <mergeCell ref="B73:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="I68:R75"/>
-    <mergeCell ref="I76:R76"/>
-    <mergeCell ref="I77:R77"/>
-    <mergeCell ref="I65:R65"/>
-    <mergeCell ref="I66:R66"/>
-    <mergeCell ref="I67:R67"/>
-    <mergeCell ref="I44:R44"/>
-    <mergeCell ref="I45:R51"/>
-    <mergeCell ref="I52:R52"/>
-    <mergeCell ref="I53:R54"/>
-    <mergeCell ref="I37:R37"/>
-    <mergeCell ref="I38:R40"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V30"/>
-    <mergeCell ref="U31:V36"/>
-    <mergeCell ref="U37:V40"/>
-    <mergeCell ref="I31:R31"/>
-    <mergeCell ref="I32:R36"/>
-    <mergeCell ref="I24:R24"/>
-    <mergeCell ref="I25:R30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F19"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="J9:R9"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="J6:U6"/>
-    <mergeCell ref="J7:R8"/>
-    <mergeCell ref="S17:Y19"/>
-    <mergeCell ref="S16:Y16"/>
-    <mergeCell ref="I13:V13"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="A4:F12"/>
+    <mergeCell ref="I87:R94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="7.77734375" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="38"/>
+      <c r="S2" s="74">
+        <v>5</v>
+      </c>
+      <c r="T2" s="60"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="23"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="38"/>
+      <c r="S3" s="74">
+        <v>3</v>
+      </c>
+      <c r="T3" s="60"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="38"/>
+      <c r="S4" s="74">
+        <v>9</v>
+      </c>
+      <c r="T4" s="60"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="1:20" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="P20" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="I21" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+    </row>
+    <row r="28" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="B21:F26"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="L21:U28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:U31"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:S12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:S16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A2:E13"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M10:O10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K30"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L4:P15"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F62"/>
+    <mergeCell ref="B16:F21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F14"/>
+    <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>